--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Login</t>
   </si>
@@ -112,6 +112,84 @@
   </si>
   <si>
     <t>Forward  material to Production/vender/dispatch/Assembly</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>retrive</t>
+  </si>
+  <si>
+    <t>+--------------------+</t>
+  </si>
+  <si>
+    <t>| assembly           |</t>
+  </si>
+  <si>
+    <t>| client             |</t>
+  </si>
+  <si>
+    <t>| company            |</t>
+  </si>
+  <si>
+    <t>| cpm                |</t>
+  </si>
+  <si>
+    <t>| dispatch           |</t>
+  </si>
+  <si>
+    <t>| dispatch_status    |</t>
+  </si>
+  <si>
+    <t>| forward            |</t>
+  </si>
+  <si>
+    <t>| login              |</t>
+  </si>
+  <si>
+    <t>| machines           |</t>
+  </si>
+  <si>
+    <t>| master_vendor      |</t>
+  </si>
+  <si>
+    <t>| orders             |</t>
+  </si>
+  <si>
+    <t>| parts              |</t>
+  </si>
+  <si>
+    <t>| plans              |</t>
+  </si>
+  <si>
+    <t>| product            |</t>
+  </si>
+  <si>
+    <t>| production         |</t>
+  </si>
+  <si>
+    <t>| raw_materials      |</t>
+  </si>
+  <si>
+    <t>| roles              |</t>
+  </si>
+  <si>
+    <t>| stock              |</t>
+  </si>
+  <si>
+    <t>| stores             |</t>
+  </si>
+  <si>
+    <t>| vendormap          |</t>
+  </si>
+  <si>
+    <t>| registration |</t>
+  </si>
+  <si>
+    <t>| Classes in springboot</t>
+  </si>
+  <si>
+    <t>without validation</t>
   </si>
 </sst>
 </file>
@@ -140,7 +218,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -228,6 +312,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,6 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7:F52"/>
+  <dimension ref="C7:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -554,13 +640,13 @@
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:6">
-      <c r="D7" s="10" t="s">
+    <row r="7" spans="3:6">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="4:6">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="3:6">
       <c r="D8" s="6">
         <v>1</v>
       </c>
@@ -568,15 +654,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="3:6">
       <c r="D9" s="6">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="4:6">
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
       <c r="D10" s="6">
         <v>3</v>
       </c>
@@ -584,15 +673,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="3:6">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="3:6">
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="6">
         <v>5</v>
       </c>
@@ -603,7 +698,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="3:6">
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="6">
         <v>6</v>
       </c>
@@ -611,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:6">
+    <row r="14" spans="3:6">
       <c r="D14" s="6">
         <v>7</v>
       </c>
@@ -619,11 +717,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
-      <c r="D16" s="10" t="s">
+    <row r="16" spans="3:6">
+      <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="8">
@@ -674,14 +772,14 @@
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="4:5">
       <c r="D25" s="8">
@@ -716,10 +814,10 @@
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="8">
@@ -762,10 +860,10 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" s="8">
@@ -808,10 +906,10 @@
       </c>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="8">
@@ -859,6 +957,121 @@
       </c>
       <c r="E52" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="E56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="E57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="E58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="E59" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="E61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="E62" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="E63" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="E64" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -218,7 +218,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +234,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -313,6 +325,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,7 +339,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C7:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -641,10 +657,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:6">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="3:6">
       <c r="D8" s="6">
@@ -680,7 +696,7 @@
       <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -691,7 +707,7 @@
       <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -705,7 +721,7 @@
       <c r="D13" s="6">
         <v>6</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -718,10 +734,10 @@
       </c>
     </row>
     <row r="16" spans="3:6">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="8">
@@ -772,14 +788,14 @@
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="4:5">
       <c r="D25" s="8">
@@ -814,10 +830,10 @@
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="8">
@@ -860,10 +876,10 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" s="8">
@@ -906,10 +922,10 @@
       </c>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="8">

--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OptySync\OptiSync\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="108" windowWidth="10512" windowHeight="4692"/>
   </bookViews>
@@ -195,8 +200,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +318,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,7 +331,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,6 +340,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,9 +423,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,6 +458,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,14 +634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="1"/>
     <col min="4" max="4" width="4.88671875" style="1" customWidth="1"/>
@@ -640,13 +650,13 @@
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:6">
-      <c r="D7" s="11" t="s">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="3:6">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D8" s="6">
         <v>1</v>
       </c>
@@ -654,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -665,7 +675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D10" s="6">
         <v>3</v>
       </c>
@@ -673,18 +683,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -698,7 +708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -709,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D14" s="6">
         <v>7</v>
       </c>
@@ -717,13 +727,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
-      <c r="D16" s="11" t="s">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="4:5">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8">
         <v>1</v>
       </c>
@@ -731,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <v>2</v>
       </c>
@@ -739,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="14.4" customHeight="1">
+    <row r="19" spans="4:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="6">
         <v>3</v>
       </c>
@@ -747,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="13.8" customHeight="1">
+    <row r="20" spans="4:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="8">
         <v>4</v>
       </c>
@@ -755,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="16.2" customHeight="1">
+    <row r="21" spans="4:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="8">
         <v>5</v>
       </c>
@@ -763,7 +773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="27.6" customHeight="1">
+    <row r="22" spans="4:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="6">
         <v>6</v>
       </c>
@@ -771,17 +781,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="11" t="s">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="4:5">
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="8">
         <v>1</v>
       </c>
@@ -789,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="8">
         <v>2</v>
       </c>
@@ -797,7 +807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="8">
         <v>3</v>
       </c>
@@ -805,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="8">
         <v>4</v>
       </c>
@@ -813,13 +823,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
-      <c r="D32" s="11" t="s">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="4:5">
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="8">
         <v>1</v>
       </c>
@@ -827,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="8">
         <v>2</v>
       </c>
@@ -835,7 +845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="8">
         <v>3</v>
       </c>
@@ -843,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="8">
         <v>4</v>
       </c>
@@ -851,21 +861,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="12" t="s">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="4:5">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="8">
         <v>1</v>
       </c>
@@ -873,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="8">
         <v>2</v>
       </c>
@@ -881,7 +891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="8">
         <v>3</v>
       </c>
@@ -889,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="8">
         <v>4</v>
       </c>
@@ -897,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" s="8">
         <v>5</v>
       </c>
@@ -905,13 +915,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
-      <c r="D46" s="11" t="s">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="4:5">
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" s="8">
         <v>1</v>
       </c>
@@ -919,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" s="8">
         <v>2</v>
       </c>
@@ -927,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="8">
         <v>3</v>
       </c>
@@ -935,7 +945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="8">
         <v>4</v>
       </c>
@@ -943,7 +953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="8">
         <v>5</v>
       </c>
@@ -951,7 +961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="8">
         <v>6</v>
       </c>
@@ -959,117 +969,117 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E59" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="4:5">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E63" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E64" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="5:5">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="5:5">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="5:5">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="5:5">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="5:5">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="5:5">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="5:5">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="5:5">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="5:5">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="5:5">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="10" t="s">
         <v>55</v>
       </c>
@@ -1090,24 +1100,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OptySync\OptiSync\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="108" windowWidth="10512" windowHeight="4692"/>
   </bookViews>
@@ -200,8 +195,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,10 +418,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,7 +452,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,14 +627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C7:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="1"/>
     <col min="4" max="4" width="4.88671875" style="1" customWidth="1"/>
@@ -650,13 +643,13 @@
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6">
       <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6">
       <c r="D8" s="6">
         <v>1</v>
       </c>
@@ -664,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6">
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -675,7 +668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6">
       <c r="D10" s="6">
         <v>3</v>
       </c>
@@ -683,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6">
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
@@ -694,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6">
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -708,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6">
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -719,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6">
       <c r="D14" s="6">
         <v>7</v>
       </c>
@@ -727,13 +720,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6">
       <c r="D16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5">
       <c r="D17" s="8">
         <v>1</v>
       </c>
@@ -741,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5">
       <c r="D18" s="6">
         <v>2</v>
       </c>
@@ -749,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" ht="14.4" customHeight="1">
       <c r="D19" s="6">
         <v>3</v>
       </c>
@@ -757,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" ht="13.8" customHeight="1">
       <c r="D20" s="8">
         <v>4</v>
       </c>
@@ -765,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" ht="16.2" customHeight="1">
       <c r="D21" s="8">
         <v>5</v>
       </c>
@@ -773,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" ht="27.6" customHeight="1">
       <c r="D22" s="6">
         <v>6</v>
       </c>
@@ -781,17 +774,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5">
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5">
       <c r="D24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5">
       <c r="D25" s="8">
         <v>1</v>
       </c>
@@ -799,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5">
       <c r="D26" s="8">
         <v>2</v>
       </c>
@@ -807,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5">
       <c r="D27" s="8">
         <v>3</v>
       </c>
@@ -815,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5">
       <c r="D28" s="8">
         <v>4</v>
       </c>
@@ -823,13 +816,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5">
       <c r="D32" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5">
       <c r="D33" s="8">
         <v>1</v>
       </c>
@@ -837,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5">
       <c r="D34" s="8">
         <v>2</v>
       </c>
@@ -845,7 +838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5">
       <c r="D35" s="8">
         <v>3</v>
       </c>
@@ -853,7 +846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5">
       <c r="D36" s="8">
         <v>4</v>
       </c>
@@ -861,21 +854,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5">
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5">
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5">
       <c r="D39" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5">
       <c r="D40" s="8">
         <v>1</v>
       </c>
@@ -883,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5">
       <c r="D41" s="8">
         <v>2</v>
       </c>
@@ -891,7 +884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5">
       <c r="D42" s="8">
         <v>3</v>
       </c>
@@ -899,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5">
       <c r="D43" s="8">
         <v>4</v>
       </c>
@@ -907,7 +900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5">
       <c r="D44" s="8">
         <v>5</v>
       </c>
@@ -915,13 +908,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5">
       <c r="D46" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="12"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5">
       <c r="D47" s="8">
         <v>1</v>
       </c>
@@ -929,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5">
       <c r="D48" s="8">
         <v>2</v>
       </c>
@@ -937,7 +930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5">
       <c r="D49" s="8">
         <v>3</v>
       </c>
@@ -945,7 +938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5">
       <c r="D50" s="8">
         <v>4</v>
       </c>
@@ -953,7 +946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5">
       <c r="D51" s="8">
         <v>5</v>
       </c>
@@ -961,7 +954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5">
       <c r="D52" s="8">
         <v>6</v>
       </c>
@@ -969,117 +962,117 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5">
       <c r="E56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5">
       <c r="E57" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5">
       <c r="E58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5">
       <c r="E59" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5">
       <c r="E60" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5">
       <c r="E61" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5">
       <c r="E62" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5">
       <c r="E63" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5">
       <c r="E64" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5">
       <c r="E65" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5">
       <c r="E66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5">
       <c r="E67" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5">
       <c r="E68" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5">
       <c r="E69" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5">
       <c r="E70" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5">
       <c r="E71" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5">
       <c r="E72" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5">
       <c r="E73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5">
       <c r="E74" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5">
       <c r="E75" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5">
       <c r="E76" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5">
       <c r="E77" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5">
       <c r="E78" s="10" t="s">
         <v>55</v>
       </c>
@@ -1100,24 +1093,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Login</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Plans the daily task</t>
   </si>
   <si>
-    <t>Sends final draft to manager</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final Dispatch </t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>Check Order Quantity Status</t>
-  </si>
-  <si>
-    <t>Confirms Dispatch Batch</t>
   </si>
   <si>
     <t>In here Manager will be able to track quantity of that order with respect of every department.</t>
@@ -218,7 +212,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -325,6 +325,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C7:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -645,7 +648,7 @@
   <sheetData>
     <row r="7" spans="3:6">
       <c r="D7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -665,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -678,7 +681,7 @@
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
@@ -689,21 +692,21 @@
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6">
         <v>6</v>
@@ -713,20 +716,16 @@
       </c>
     </row>
     <row r="14" spans="3:6">
-      <c r="D14" s="6">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="16" spans="3:6">
       <c r="D16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="3:5">
       <c r="D17" s="8">
         <v>1</v>
       </c>
@@ -734,7 +733,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="3:5">
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="6">
         <v>2</v>
       </c>
@@ -742,7 +744,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="14.4" customHeight="1">
+    <row r="19" spans="3:5" ht="14.4" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="6">
         <v>3</v>
       </c>
@@ -750,7 +755,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="13.8" customHeight="1">
+    <row r="20" spans="3:5" ht="13.8" customHeight="1">
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="8">
         <v>4</v>
       </c>
@@ -758,7 +766,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="16.2" customHeight="1">
+    <row r="21" spans="3:5" ht="16.2" customHeight="1">
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D21" s="8">
         <v>5</v>
       </c>
@@ -766,25 +777,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="27.6" customHeight="1">
+    <row r="22" spans="3:5" ht="27.6" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D22" s="6">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="3:5">
       <c r="D24" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="3:5">
       <c r="D25" s="8">
         <v>1</v>
       </c>
@@ -792,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="3:5">
       <c r="D26" s="8">
         <v>2</v>
       </c>
@@ -800,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="3:5">
       <c r="D27" s="8">
         <v>3</v>
       </c>
@@ -808,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="3:5">
       <c r="D28" s="8">
         <v>4</v>
       </c>
@@ -816,9 +830,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="3:5">
       <c r="D32" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="12"/>
     </row>
@@ -835,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="4:5">
@@ -851,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="4:5">
@@ -864,7 +878,7 @@
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="14"/>
     </row>
@@ -880,8 +894,8 @@
       <c r="D41" s="8">
         <v>2</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>27</v>
+      <c r="E41" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="4:5">
@@ -901,12 +915,8 @@
       </c>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="8">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="46" spans="4:5">
       <c r="D46" s="12" t="s">
@@ -927,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="4:5">
@@ -935,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="4:5">
@@ -943,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="4:5">
@@ -951,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="4:5">
@@ -959,122 +969,122 @@
         <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="E56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="4:5">
       <c r="E57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="4:5">
       <c r="E58" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="4:5">
       <c r="E59" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="4:5">
       <c r="E60" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="E61" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="4:5">
       <c r="E62" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="4:5">
       <c r="E63" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="4:5">
       <c r="E64" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Login</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Ordering Raw Material</t>
-  </si>
-  <si>
-    <t>Update Stock of the material</t>
   </si>
   <si>
     <t>Recieves material from Vendors</t>
@@ -314,6 +311,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,9 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C7:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -647,10 +644,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:6">
-      <c r="D7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="3:6">
       <c r="D8" s="6">
@@ -668,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -681,38 +678,38 @@
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -720,12 +717,12 @@
       <c r="E14" s="2"/>
     </row>
     <row r="16" spans="3:6">
-      <c r="D16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="3:5">
+      <c r="D16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="4:5">
       <c r="D17" s="8">
         <v>1</v>
       </c>
@@ -733,10 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="18" spans="4:5">
       <c r="D18" s="6">
         <v>2</v>
       </c>
@@ -744,61 +738,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="14.4" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="19" spans="4:5" ht="14.4" customHeight="1">
       <c r="D19" s="6">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="13.8" customHeight="1">
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="13.8" customHeight="1">
       <c r="D20" s="8">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="16.2" customHeight="1">
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="16.2" customHeight="1">
+      <c r="D21" s="6">
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="27.6" customHeight="1">
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="6">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="D24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="3:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" ht="27.6" customHeight="1"/>
+    <row r="23" spans="4:5">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="4:5">
       <c r="D25" s="8">
         <v>1</v>
       </c>
@@ -806,35 +781,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="4:5">
       <c r="D26" s="8">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
       <c r="D27" s="8">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
       <c r="D28" s="8">
         <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="D32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="8">
@@ -849,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="4:5">
@@ -857,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="4:5">
@@ -865,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="4:5">
@@ -877,10 +852,10 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" s="8">
@@ -894,8 +869,8 @@
       <c r="D41" s="8">
         <v>2</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>26</v>
+      <c r="E41" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="4:5">
@@ -903,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="4:5">
@@ -911,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="4:5">
@@ -919,10 +894,10 @@
       <c r="E44" s="2"/>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="12"/>
+      <c r="D46" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="8">
@@ -937,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="4:5">
@@ -945,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="4:5">
@@ -953,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="4:5">
@@ -961,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="4:5">
@@ -969,122 +944,122 @@
         <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="E56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="4:5">
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="4:5">
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="4:5">
       <c r="E59" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="4:5">
       <c r="E60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="4:5">
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="4:5">
       <c r="E62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="4:5">
       <c r="E63" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="4:5">
       <c r="E64" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C7:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C22"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>

--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OptySync\OptiSync\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="108" windowWidth="10512" windowHeight="4692"/>
   </bookViews>
@@ -102,9 +107,6 @@
     <t>In here Manager will be able to track quantity of that order with respect of every department.</t>
   </si>
   <si>
-    <t>Forward  material to Production/vender/dispatch/Assembly</t>
-  </si>
-  <si>
     <t>form</t>
   </si>
   <si>
@@ -181,13 +183,16 @@
   </si>
   <si>
     <t>without validation</t>
+  </si>
+  <si>
+    <t>Forward  material to Production/Assembly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,9 +423,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,6 +458,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,14 +634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C22"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="1"/>
     <col min="4" max="4" width="4.88671875" style="1" customWidth="1"/>
@@ -643,13 +650,13 @@
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D8" s="6">
         <v>1</v>
       </c>
@@ -657,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D9" s="6">
         <v>2</v>
       </c>
@@ -665,10 +672,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D10" s="6">
         <v>3</v>
       </c>
@@ -676,9 +683,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
@@ -687,9 +694,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
@@ -701,9 +708,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6">
         <v>6</v>
@@ -712,17 +719,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="8">
         <v>1</v>
       </c>
@@ -730,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <v>2</v>
       </c>
@@ -738,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="14.4" customHeight="1">
+    <row r="19" spans="4:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="6">
         <v>3</v>
       </c>
@@ -746,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="13.8" customHeight="1">
+    <row r="20" spans="4:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="8">
         <v>4</v>
       </c>
@@ -754,26 +761,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="16.2" customHeight="1">
+    <row r="21" spans="4:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="6">
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" ht="27.6" customHeight="1"/>
-    <row r="23" spans="4:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="8">
         <v>1</v>
       </c>
@@ -781,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="8">
         <v>2</v>
       </c>
@@ -789,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="8">
         <v>3</v>
       </c>
@@ -797,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="8">
         <v>4</v>
       </c>
@@ -805,13 +812,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="8">
         <v>1</v>
       </c>
@@ -819,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="8">
         <v>2</v>
       </c>
@@ -827,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="8">
         <v>3</v>
       </c>
@@ -835,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="8">
         <v>4</v>
       </c>
@@ -843,21 +850,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="8">
         <v>1</v>
       </c>
@@ -865,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="8">
         <v>2</v>
       </c>
@@ -873,7 +880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="8">
         <v>3</v>
       </c>
@@ -881,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="8">
         <v>4</v>
       </c>
@@ -889,17 +896,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" s="8"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D46" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" s="8">
         <v>1</v>
       </c>
@@ -907,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D48" s="8">
         <v>2</v>
       </c>
@@ -915,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="8">
         <v>3</v>
       </c>
@@ -923,7 +930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" s="8">
         <v>4</v>
       </c>
@@ -931,7 +938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="8">
         <v>5</v>
       </c>
@@ -939,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" s="8">
         <v>6</v>
       </c>
@@ -947,119 +954,119 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="4:5">
-      <c r="E58" s="1" t="s">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="4:5">
-      <c r="E59" s="10" t="s">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="4:5">
-      <c r="E60" s="1" t="s">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="4:5">
-      <c r="E61" s="1" t="s">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="4:5">
-      <c r="E62" s="1" t="s">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="4:5">
-      <c r="E63" s="10" t="s">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="4:5">
-      <c r="E64" s="10" t="s">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="10" t="s">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="1" t="s">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="10" t="s">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="1" t="s">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="1" t="s">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="1" t="s">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="1" t="s">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="1" t="s">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="1" t="s">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="10" t="s">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="5:5">
-      <c r="E75" s="1" t="s">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="1" t="s">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="1" t="s">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="10" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1078,24 +1085,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UseCase R2.xlsx
+++ b/UseCase R2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OptySync\OptiSync\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="108" windowWidth="10512" windowHeight="4692"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Login</t>
   </si>
@@ -102,87 +97,6 @@
   </si>
   <si>
     <t>Check Order Quantity Status</t>
-  </si>
-  <si>
-    <t>In here Manager will be able to track quantity of that order with respect of every department.</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>retrive</t>
-  </si>
-  <si>
-    <t>+--------------------+</t>
-  </si>
-  <si>
-    <t>| assembly           |</t>
-  </si>
-  <si>
-    <t>| client             |</t>
-  </si>
-  <si>
-    <t>| company            |</t>
-  </si>
-  <si>
-    <t>| cpm                |</t>
-  </si>
-  <si>
-    <t>| dispatch           |</t>
-  </si>
-  <si>
-    <t>| dispatch_status    |</t>
-  </si>
-  <si>
-    <t>| forward            |</t>
-  </si>
-  <si>
-    <t>| login              |</t>
-  </si>
-  <si>
-    <t>| machines           |</t>
-  </si>
-  <si>
-    <t>| master_vendor      |</t>
-  </si>
-  <si>
-    <t>| orders             |</t>
-  </si>
-  <si>
-    <t>| parts              |</t>
-  </si>
-  <si>
-    <t>| plans              |</t>
-  </si>
-  <si>
-    <t>| product            |</t>
-  </si>
-  <si>
-    <t>| production         |</t>
-  </si>
-  <si>
-    <t>| raw_materials      |</t>
-  </si>
-  <si>
-    <t>| roles              |</t>
-  </si>
-  <si>
-    <t>| stock              |</t>
-  </si>
-  <si>
-    <t>| stores             |</t>
-  </si>
-  <si>
-    <t>| vendormap          |</t>
-  </si>
-  <si>
-    <t>| registration |</t>
-  </si>
-  <si>
-    <t>| Classes in springboot</t>
-  </si>
-  <si>
-    <t>without validation</t>
   </si>
   <si>
     <t>Forward  material to Production/Assembly</t>
@@ -191,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +128,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,18 +138,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -314,11 +216,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,6 +227,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,10 +324,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,7 +358,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,14 +533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:F78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C7:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="1"/>
     <col min="4" max="4" width="4.88671875" style="1" customWidth="1"/>
@@ -650,13 +549,13 @@
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="13" t="s">
+    <row r="7" spans="3:5">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="3:5">
       <c r="D8" s="6">
         <v>1</v>
       </c>
@@ -664,18 +563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5">
       <c r="D9" s="6">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="3:5">
       <c r="D10" s="6">
         <v>3</v>
       </c>
@@ -683,35 +579,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="11" spans="3:5">
       <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="12" spans="3:5">
       <c r="D12" s="6">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="14"/>
       <c r="D13" s="6">
         <v>6</v>
       </c>
@@ -719,17 +604,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5">
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="13" t="s">
+    <row r="16" spans="3:5">
+      <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="4:5">
       <c r="D17" s="8">
         <v>1</v>
       </c>
@@ -737,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5">
       <c r="D18" s="6">
         <v>2</v>
       </c>
@@ -745,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" ht="14.4" customHeight="1">
       <c r="D19" s="6">
         <v>3</v>
       </c>
@@ -753,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" ht="13.8" customHeight="1">
       <c r="D20" s="8">
         <v>4</v>
       </c>
@@ -761,26 +646,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" ht="16.2" customHeight="1">
       <c r="D21" s="6">
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" ht="27.6" customHeight="1"/>
+    <row r="23" spans="4:5">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="4:5">
       <c r="D25" s="8">
         <v>1</v>
       </c>
@@ -788,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5">
       <c r="D26" s="8">
         <v>2</v>
       </c>
@@ -796,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5">
       <c r="D27" s="8">
         <v>3</v>
       </c>
@@ -804,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5">
       <c r="D28" s="8">
         <v>4</v>
       </c>
@@ -812,13 +697,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="13" t="s">
+    <row r="32" spans="4:5">
+      <c r="D32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="4:5">
       <c r="D33" s="8">
         <v>1</v>
       </c>
@@ -826,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5">
       <c r="D34" s="8">
         <v>2</v>
       </c>
@@ -834,7 +719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5">
       <c r="D35" s="8">
         <v>3</v>
       </c>
@@ -842,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5">
       <c r="D36" s="8">
         <v>4</v>
       </c>
@@ -850,21 +735,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5">
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5">
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="14" t="s">
+    <row r="39" spans="4:5">
+      <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="4:5">
       <c r="D40" s="8">
         <v>1</v>
       </c>
@@ -872,15 +757,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5">
       <c r="D41" s="8">
         <v>2</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5">
       <c r="D42" s="8">
         <v>3</v>
       </c>
@@ -888,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5">
       <c r="D43" s="8">
         <v>4</v>
       </c>
@@ -896,17 +781,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5">
       <c r="D44" s="8"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="13" t="s">
+    <row r="46" spans="4:5">
+      <c r="D46" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="4:5">
       <c r="D47" s="8">
         <v>1</v>
       </c>
@@ -914,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5">
       <c r="D48" s="8">
         <v>2</v>
       </c>
@@ -922,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5">
       <c r="D49" s="8">
         <v>3</v>
       </c>
@@ -930,7 +815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5">
       <c r="D50" s="8">
         <v>4</v>
       </c>
@@ -938,7 +823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5">
       <c r="D51" s="8">
         <v>5</v>
       </c>
@@ -946,7 +831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5">
       <c r="D52" s="8">
         <v>6</v>
       </c>
@@ -954,120 +839,80 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="10" t="s">
-        <v>51</v>
-      </c>
+    <row r="56" spans="4:5">
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1085,24 +930,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
